--- a/src/main/java/org/zzm/jvmbook/ch06/ch03_01/符号常量.xlsx
+++ b/src/main/java/org/zzm/jvmbook/ch06/ch03_01/符号常量.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="264">
   <si>
     <t>tag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1053,6 +1053,14 @@
   </si>
   <si>
     <t>方法是否由编译器产生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>access_flags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attributes_count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1215,35 +1223,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1260,6 +1241,39 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1268,11 +1282,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1286,7 +1295,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1606,36 +1614,36 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
     <col min="2" max="2" width="24.25" customWidth="1"/>
-    <col min="3" max="3" width="36.625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="36.625" style="7" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="8" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1646,18 +1654,18 @@
       <c r="B3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1668,18 +1676,18 @@
       <c r="B5" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="10" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1690,18 +1698,18 @@
       <c r="B7" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="10">
         <v>1</v>
       </c>
       <c r="D8" t="s">
@@ -1715,7 +1723,7 @@
       <c r="B9" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
@@ -1723,13 +1731,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1740,7 +1748,7 @@
       <c r="B11" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="9" t="s">
         <v>125</v>
       </c>
       <c r="D11" t="s">
@@ -1748,13 +1756,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1765,18 +1773,18 @@
       <c r="B13" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="9" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1787,18 +1795,18 @@
       <c r="B15" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="9" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C16" s="19">
+      <c r="B16" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C16" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1809,7 +1817,7 @@
       <c r="B17" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="9" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1838,27 +1846,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1872,8 +1880,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1885,8 +1893,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1898,40 +1906,40 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
+      <c r="A5" s="18">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="A7" s="15">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1945,8 +1953,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1958,40 +1966,40 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="6">
+      <c r="A9" s="18">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="A11" s="15">
         <v>6</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2005,8 +2013,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
@@ -2018,40 +2026,40 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="6">
+      <c r="A13" s="18">
         <v>7</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="7" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+      <c r="A15" s="15">
         <v>8</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2065,8 +2073,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="1" t="s">
         <v>33</v>
       </c>
@@ -2078,53 +2086,53 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="6">
+      <c r="A17" s="18">
         <v>9</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="7" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="7" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2138,8 +2146,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="1" t="s">
         <v>43</v>
       </c>
@@ -2151,8 +2159,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="1" t="s">
         <v>28</v>
       </c>
@@ -2164,53 +2172,53 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="7" t="s">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="7" t="s">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -2224,8 +2232,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="1" t="s">
         <v>50</v>
       </c>
@@ -2237,8 +2245,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="1" t="s">
         <v>28</v>
       </c>
@@ -2250,53 +2258,53 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="7" t="s">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="7" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="15" t="s">
         <v>61</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2310,8 +2318,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="1" t="s">
         <v>64</v>
       </c>
@@ -2323,53 +2331,53 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="14" t="s">
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="7" t="s">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2383,8 +2391,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="2" t="s">
         <v>68</v>
       </c>
@@ -2396,8 +2404,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="1" t="s">
         <v>71</v>
       </c>
@@ -2409,40 +2417,40 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="7" t="s">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="15" t="s">
         <v>84</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -2456,8 +2464,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
       <c r="C43" s="1" t="s">
         <v>81</v>
       </c>
@@ -2470,6 +2478,33 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A31"/>
@@ -2477,33 +2512,6 @@
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2527,24 +2535,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="6" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2560,13 +2568,13 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="5" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2582,13 +2590,13 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="5" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2604,13 +2612,13 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="5" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2626,13 +2634,13 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="5" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2659,31 +2667,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="6" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2702,13 +2710,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" t="s">
@@ -2727,47 +2735,47 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="3" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="11" t="s">
         <v>179</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2778,18 +2786,18 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="3" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="11" t="s">
         <v>181</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2800,18 +2808,18 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="3" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="11" t="s">
         <v>183</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2822,18 +2830,18 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="3" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="11" t="s">
         <v>185</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2844,115 +2852,115 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="3" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="30"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="12" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="3" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="11" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="3" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="11" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="3" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="11" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="3" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="11" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="3" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="13" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="4" t="s">
         <v>229</v>
       </c>
     </row>
@@ -2960,8 +2968,8 @@
       <c r="A35" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="22"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
     </row>
     <row r="37" spans="1:3" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="32" t="s">
@@ -2988,7 +2996,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2999,31 +3007,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="6" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="B3" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3032,7 +3040,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>232</v>
+        <v>81</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -3042,13 +3050,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" t="s">
@@ -3067,47 +3075,47 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="3" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="11" t="s">
         <v>179</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -3118,18 +3126,18 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="3" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="11" t="s">
         <v>181</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -3140,18 +3148,18 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="3" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="11" t="s">
         <v>242</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3162,18 +3170,18 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="5" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="11" t="s">
         <v>244</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -3184,18 +3192,18 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="3" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="11" t="s">
         <v>245</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -3206,18 +3214,18 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="3" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="11" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="1" t="s">

--- a/src/main/java/org/zzm/jvmbook/ch06/ch03_01/符号常量.xlsx
+++ b/src/main/java/org/zzm/jvmbook/ch06/ch03_01/符号常量.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="class文件格式" sheetId="3" r:id="rId1"/>
@@ -1247,15 +1247,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1263,6 +1254,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1863,10 +1863,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="15">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1880,8 +1880,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1893,8 +1893,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1906,10 +1906,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1923,8 +1923,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1936,10 +1936,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="15">
+      <c r="A7" s="18">
         <v>4</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1953,8 +1953,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1966,10 +1966,10 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="18">
+      <c r="A9" s="15">
         <v>5</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1983,8 +1983,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1996,10 +1996,10 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="15">
+      <c r="A11" s="18">
         <v>6</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2013,8 +2013,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
@@ -2026,10 +2026,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="18">
+      <c r="A13" s="15">
         <v>7</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -2043,8 +2043,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="3" t="s">
         <v>28</v>
       </c>
@@ -2056,10 +2056,10 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="15">
+      <c r="A15" s="18">
         <v>8</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2073,8 +2073,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="1" t="s">
         <v>33</v>
       </c>
@@ -2086,10 +2086,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="18">
+      <c r="A17" s="15">
         <v>9</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -2103,8 +2103,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="3" t="s">
         <v>28</v>
       </c>
@@ -2116,8 +2116,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="3" t="s">
         <v>28</v>
       </c>
@@ -2129,10 +2129,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="18" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2146,8 +2146,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="1" t="s">
         <v>43</v>
       </c>
@@ -2159,8 +2159,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="1" t="s">
         <v>28</v>
       </c>
@@ -2215,10 +2215,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="18" t="s">
         <v>73</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -2232,8 +2232,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="1" t="s">
         <v>50</v>
       </c>
@@ -2245,8 +2245,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="1" t="s">
         <v>28</v>
       </c>
@@ -2258,10 +2258,10 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="15" t="s">
         <v>55</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -2275,8 +2275,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="3" t="s">
         <v>56</v>
       </c>
@@ -2288,8 +2288,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="3" t="s">
         <v>58</v>
       </c>
@@ -2301,10 +2301,10 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="18" t="s">
         <v>61</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2318,8 +2318,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="1" t="s">
         <v>64</v>
       </c>
@@ -2331,10 +2331,10 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="15" t="s">
         <v>65</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -2348,8 +2348,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="5" t="s">
         <v>68</v>
       </c>
@@ -2361,8 +2361,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="3" t="s">
         <v>71</v>
       </c>
@@ -2374,10 +2374,10 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="18" t="s">
         <v>75</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2391,8 +2391,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="2" t="s">
         <v>68</v>
       </c>
@@ -2404,8 +2404,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="1" t="s">
         <v>71</v>
       </c>
@@ -2417,10 +2417,10 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -2434,8 +2434,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="3" t="s">
         <v>81</v>
       </c>
@@ -2447,10 +2447,10 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -2464,8 +2464,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="1" t="s">
         <v>81</v>
       </c>
@@ -2478,6 +2478,28 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B6"/>
@@ -2490,28 +2512,6 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A40:A41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2654,8 +2654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2995,8 +2995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
